--- a/MailSender/MailData/mailList.xlsx
+++ b/MailSender/MailData/mailList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omereren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunus\source\repos\EmailSender\MailSender\MailData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279E1C5-E2EA-47AE-AA72-800CCC5DCEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08575328-1E80-46EC-B0CD-245E73EB0DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32115" yWindow="2490" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>selcukyesilyurt@metroyapi.com.tr</t>
   </si>
@@ -72,9 +72,6 @@
     <t>davutcoskun@metroelektrik.com.tr</t>
   </si>
   <si>
-    <t>edasolmaz@metroyapi.com.tr</t>
-  </si>
-  <si>
     <t>ikbaladali@metroelektrik.com.tr</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>firatgoktas@metroelektrik.com.tr</t>
-  </si>
-  <si>
-    <t>mehmetnikbay@metroelektrik.com.tr</t>
   </si>
   <si>
     <t>gulsahcinar@metroelektrik.com.tr</t>
@@ -182,7 +176,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="3" builtinId="8"/>
     <cellStyle name="Köprü 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -497,142 +491,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -652,13 +636,12 @@
     <hyperlink ref="A12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>